--- a/biology/Botanique/Acajou_des_Antilles/Acajou_des_Antilles.xlsx
+++ b/biology/Botanique/Acajou_des_Antilles/Acajou_des_Antilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Swietenia mahagoni, l'acajou d'Amérique, acajou des Antilles ou acajou de Cuba, est un arbre de la famille des Meliaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Grand arbre au tronc épais
 Fleurs blanches en petites panicules corymbiformes, situées à l'extrémité des feuilles,
-Fruits larges, pyriforme, s'ouvrant de bas en haut en 5 valves ligneuses[1].</t>
+Fruits larges, pyriforme, s'ouvrant de bas en haut en 5 valves ligneuses.</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Swietenia mahagoni est présent dans les Antilles, à Cuba, en Jamaïque, à Saint-Domingue, ainsi qu'en Floride. Il est introduit dans d'autres pays.
 </t>
@@ -574,7 +590,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre a été lourdement exploité aux XVIIIe et XIXe siècles pour l'exportation de son bois (particulièrement en Europe) pour la construction navale et la réalisation de meubles de qualité. Il est aujourd'hui en voie de disparition dans son habitat naturel. Il n'est cependant pas rare comme arbre d'ornement ou de plantation sylvicole dans beaucoup de pays du monde
 			Tronc et feuillages.
